--- a/iqma-times.xlsx
+++ b/iqma-times.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaidq\Desktop\vagrant\workspace\rexdale-masjid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\rexdale-masjid\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D73868B-B6FC-45AF-9BD4-7736036EFB0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10335" xr2:uid="{23536C81-BBE2-40BC-99B3-45CC75E2F752}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28125" xr2:uid="{23536C81-BBE2-40BC-99B3-45CC75E2F752}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2607,7 +2608,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC822B9A-2A7D-44F3-B733-DDFD66B0B4CD}">
   <dimension ref="A1:L367"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A319" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M375" sqref="M375"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2689,7 +2692,7 @@
         <v>591</v>
       </c>
       <c r="L2" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333304</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -2727,7 +2730,7 @@
         <v>356</v>
       </c>
       <c r="L3" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -2765,7 +2768,7 @@
         <v>356</v>
       </c>
       <c r="L4" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333404</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -2803,7 +2806,7 @@
         <v>355</v>
       </c>
       <c r="L5" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333404</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -2841,7 +2844,7 @@
         <v>592</v>
       </c>
       <c r="L6" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333404</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -2879,7 +2882,7 @@
         <v>354</v>
       </c>
       <c r="L7" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333504</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -2917,7 +2920,7 @@
         <v>353</v>
       </c>
       <c r="L8" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333504</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -2955,7 +2958,7 @@
         <v>593</v>
       </c>
       <c r="L9" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333504</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -2993,7 +2996,7 @@
         <v>352</v>
       </c>
       <c r="L10" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333603</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -3031,7 +3034,7 @@
         <v>351</v>
       </c>
       <c r="L11" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333603</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -3069,7 +3072,7 @@
         <v>594</v>
       </c>
       <c r="L12" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333603</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -3107,7 +3110,7 @@
         <v>350</v>
       </c>
       <c r="L13" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333703</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -3145,7 +3148,7 @@
         <v>595</v>
       </c>
       <c r="L14" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333703</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -3183,7 +3186,7 @@
         <v>349</v>
       </c>
       <c r="L15" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333703</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -3221,7 +3224,7 @@
         <v>348</v>
       </c>
       <c r="L16" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333803</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -3259,7 +3262,7 @@
         <v>596</v>
       </c>
       <c r="L17" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333803</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -3297,7 +3300,7 @@
         <v>347</v>
       </c>
       <c r="L18" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333803</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -3335,7 +3338,7 @@
         <v>597</v>
       </c>
       <c r="L19" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333903</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -3373,7 +3376,7 @@
         <v>346</v>
       </c>
       <c r="L20" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333903</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -3411,7 +3414,7 @@
         <v>345</v>
       </c>
       <c r="L21" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333903</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -3449,7 +3452,7 @@
         <v>598</v>
       </c>
       <c r="L22" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333334003</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -3487,7 +3490,7 @@
         <v>599</v>
       </c>
       <c r="L23" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333334003</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -3525,7 +3528,7 @@
         <v>343</v>
       </c>
       <c r="L24" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333334003</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -3563,7 +3566,7 @@
         <v>342</v>
       </c>
       <c r="L25" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333334103</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -3601,7 +3604,7 @@
         <v>625</v>
       </c>
       <c r="L26" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333334103</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -3639,7 +3642,7 @@
         <v>341</v>
       </c>
       <c r="L27" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333334103</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -3677,7 +3680,7 @@
         <v>626</v>
       </c>
       <c r="L28" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333334203</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -3715,7 +3718,7 @@
         <v>627</v>
       </c>
       <c r="L29" s="1">
-        <v>0.80208333333333337</v>
+        <v>0.77083333333334203</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -3753,7 +3756,7 @@
         <v>339</v>
       </c>
       <c r="L30" s="1">
-        <v>0.80208333333333337</v>
+        <v>0.77083333333334203</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -3791,7 +3794,7 @@
         <v>338</v>
       </c>
       <c r="L31" s="1">
-        <v>0.80208333333333337</v>
+        <v>0.77083333333334303</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -3829,7 +3832,7 @@
         <v>628</v>
       </c>
       <c r="L32" s="1">
-        <v>0.80208333333333337</v>
+        <v>0.77083333333334303</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -14963,7 +14966,7 @@
         <v>218</v>
       </c>
       <c r="L325" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
     </row>
     <row r="326" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -14974,7 +14977,7 @@
         <v>28</v>
       </c>
       <c r="C326" s="1">
-        <v>0.28125</v>
+        <v>0.27083333333333298</v>
       </c>
       <c r="D326" s="4" t="s">
         <v>401</v>
@@ -15001,7 +15004,7 @@
         <v>218</v>
       </c>
       <c r="L326" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
     </row>
     <row r="327" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -15012,7 +15015,7 @@
         <v>148</v>
       </c>
       <c r="C327" s="1">
-        <v>0.28125</v>
+        <v>0.27083333333333298</v>
       </c>
       <c r="D327" s="4" t="s">
         <v>400</v>
@@ -15039,7 +15042,7 @@
         <v>217</v>
       </c>
       <c r="L327" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333304</v>
       </c>
     </row>
     <row r="328" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -15050,7 +15053,7 @@
         <v>27</v>
       </c>
       <c r="C328" s="1">
-        <v>0.28125</v>
+        <v>0.27083333333333298</v>
       </c>
       <c r="D328" s="4" t="s">
         <v>452</v>
@@ -15077,7 +15080,7 @@
         <v>217</v>
       </c>
       <c r="L328" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333304</v>
       </c>
     </row>
     <row r="329" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -15088,7 +15091,7 @@
         <v>25</v>
       </c>
       <c r="C329" s="1">
-        <v>0.28125</v>
+        <v>0.27083333333333298</v>
       </c>
       <c r="D329" s="4" t="s">
         <v>398</v>
@@ -15115,7 +15118,7 @@
         <v>216</v>
       </c>
       <c r="L329" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333304</v>
       </c>
     </row>
     <row r="330" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -15126,7 +15129,7 @@
         <v>24</v>
       </c>
       <c r="C330" s="1">
-        <v>0.28125</v>
+        <v>0.27083333333333298</v>
       </c>
       <c r="D330" s="4" t="s">
         <v>397</v>
@@ -15153,7 +15156,7 @@
         <v>216</v>
       </c>
       <c r="L330" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333304</v>
       </c>
     </row>
     <row r="331" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -15164,7 +15167,7 @@
         <v>48</v>
       </c>
       <c r="C331" s="1">
-        <v>0.28125</v>
+        <v>0.27083333333333298</v>
       </c>
       <c r="D331" s="4" t="s">
         <v>448</v>
@@ -15191,7 +15194,7 @@
         <v>215</v>
       </c>
       <c r="L331" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333304</v>
       </c>
     </row>
     <row r="332" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -15229,7 +15232,7 @@
         <v>215</v>
       </c>
       <c r="L332" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333304</v>
       </c>
     </row>
     <row r="333" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -15267,7 +15270,7 @@
         <v>589</v>
       </c>
       <c r="L333" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333304</v>
       </c>
     </row>
     <row r="334" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -15305,7 +15308,7 @@
         <v>589</v>
       </c>
       <c r="L334" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333304</v>
       </c>
     </row>
     <row r="335" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -15343,7 +15346,7 @@
         <v>589</v>
       </c>
       <c r="L335" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333304</v>
       </c>
     </row>
     <row r="336" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -15381,7 +15384,7 @@
         <v>589</v>
       </c>
       <c r="L336" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333304</v>
       </c>
     </row>
     <row r="337" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -15419,7 +15422,7 @@
         <v>214</v>
       </c>
       <c r="L337" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333304</v>
       </c>
     </row>
     <row r="338" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -15457,7 +15460,7 @@
         <v>214</v>
       </c>
       <c r="L338" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333304</v>
       </c>
     </row>
     <row r="339" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -15495,7 +15498,7 @@
         <v>214</v>
       </c>
       <c r="L339" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333304</v>
       </c>
     </row>
     <row r="340" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -15533,7 +15536,7 @@
         <v>214</v>
       </c>
       <c r="L340" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333304</v>
       </c>
     </row>
     <row r="341" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -15571,7 +15574,7 @@
         <v>214</v>
       </c>
       <c r="L341" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333304</v>
       </c>
     </row>
     <row r="342" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -15609,7 +15612,7 @@
         <v>214</v>
       </c>
       <c r="L342" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333304</v>
       </c>
     </row>
     <row r="343" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -15647,7 +15650,7 @@
         <v>214</v>
       </c>
       <c r="L343" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333304</v>
       </c>
     </row>
     <row r="344" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -15685,7 +15688,7 @@
         <v>214</v>
       </c>
       <c r="L344" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333304</v>
       </c>
     </row>
     <row r="345" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -15723,7 +15726,7 @@
         <v>214</v>
       </c>
       <c r="L345" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333304</v>
       </c>
     </row>
     <row r="346" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -15761,7 +15764,7 @@
         <v>214</v>
       </c>
       <c r="L346" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333304</v>
       </c>
     </row>
     <row r="347" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -15799,7 +15802,7 @@
         <v>214</v>
       </c>
       <c r="L347" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333304</v>
       </c>
     </row>
     <row r="348" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -15837,7 +15840,7 @@
         <v>214</v>
       </c>
       <c r="L348" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333304</v>
       </c>
     </row>
     <row r="349" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -15875,7 +15878,7 @@
         <v>214</v>
       </c>
       <c r="L349" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333304</v>
       </c>
     </row>
     <row r="350" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -15913,7 +15916,7 @@
         <v>589</v>
       </c>
       <c r="L350" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333304</v>
       </c>
     </row>
     <row r="351" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -15951,7 +15954,7 @@
         <v>589</v>
       </c>
       <c r="L351" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333304</v>
       </c>
     </row>
     <row r="352" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -15989,7 +15992,7 @@
         <v>589</v>
       </c>
       <c r="L352" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333304</v>
       </c>
     </row>
     <row r="353" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -16027,7 +16030,7 @@
         <v>215</v>
       </c>
       <c r="L353" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333304</v>
       </c>
     </row>
     <row r="354" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -16065,7 +16068,7 @@
         <v>215</v>
       </c>
       <c r="L354" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333304</v>
       </c>
     </row>
     <row r="355" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -16103,7 +16106,7 @@
         <v>215</v>
       </c>
       <c r="L355" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333304</v>
       </c>
     </row>
     <row r="356" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -16141,7 +16144,7 @@
         <v>216</v>
       </c>
       <c r="L356" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333304</v>
       </c>
     </row>
     <row r="357" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -16179,7 +16182,7 @@
         <v>216</v>
       </c>
       <c r="L357" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333304</v>
       </c>
     </row>
     <row r="358" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -16217,7 +16220,7 @@
         <v>217</v>
       </c>
       <c r="L358" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333304</v>
       </c>
     </row>
     <row r="359" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -16255,7 +16258,7 @@
         <v>217</v>
       </c>
       <c r="L359" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333304</v>
       </c>
     </row>
     <row r="360" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -16293,7 +16296,7 @@
         <v>218</v>
       </c>
       <c r="L360" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333304</v>
       </c>
     </row>
     <row r="361" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -16331,7 +16334,7 @@
         <v>360</v>
       </c>
       <c r="L361" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333304</v>
       </c>
     </row>
     <row r="362" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -16369,7 +16372,7 @@
         <v>360</v>
       </c>
       <c r="L362" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333304</v>
       </c>
     </row>
     <row r="363" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -16407,7 +16410,7 @@
         <v>359</v>
       </c>
       <c r="L363" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333304</v>
       </c>
     </row>
     <row r="364" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -16445,7 +16448,7 @@
         <v>590</v>
       </c>
       <c r="L364" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333304</v>
       </c>
     </row>
     <row r="365" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -16483,7 +16486,7 @@
         <v>590</v>
       </c>
       <c r="L365" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333304</v>
       </c>
     </row>
     <row r="366" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -16521,7 +16524,7 @@
         <v>358</v>
       </c>
       <c r="L366" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333304</v>
       </c>
     </row>
     <row r="367" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -16559,7 +16562,7 @@
         <v>357</v>
       </c>
       <c r="L367" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
     </row>
   </sheetData>

--- a/iqma-times.xlsx
+++ b/iqma-times.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\rexdale-masjid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D73868B-B6FC-45AF-9BD4-7736036EFB0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65F785A-B860-4641-926F-06C3A7A3B255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28125" xr2:uid="{23536C81-BBE2-40BC-99B3-45CC75E2F752}"/>
+    <workbookView xWindow="1950" yWindow="690" windowWidth="8430" windowHeight="6750" xr2:uid="{23536C81-BBE2-40BC-99B3-45CC75E2F752}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2282,7 +2282,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -2291,6 +2291,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2608,8 +2611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC822B9A-2A7D-44F3-B733-DDFD66B0B4CD}">
   <dimension ref="A1:L367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A319" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M375" sqref="M375"/>
+    <sheetView tabSelected="1" topLeftCell="A340" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B373" sqref="B373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14479,34 +14482,34 @@
       <c r="A313" s="6">
         <v>43411</v>
       </c>
-      <c r="B313" s="4" t="s">
+      <c r="B313" s="8" t="s">
         <v>145</v>
       </c>
       <c r="C313" s="1">
         <v>0.26041666666666669</v>
       </c>
-      <c r="D313" s="4" t="s">
+      <c r="D313" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="E313" s="4" t="s">
+      <c r="E313" s="8" t="s">
         <v>494</v>
       </c>
       <c r="F313" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G313" s="4" t="s">
+      <c r="G313" s="8" t="s">
         <v>523</v>
       </c>
       <c r="H313" s="1">
         <v>0.65625</v>
       </c>
-      <c r="I313" s="2" t="s">
+      <c r="I313" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="J313" s="2" t="s">
+      <c r="J313" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="K313" s="4" t="s">
+      <c r="K313" s="8" t="s">
         <v>354</v>
       </c>
       <c r="L313" s="1">
@@ -14517,34 +14520,34 @@
       <c r="A314" s="6">
         <v>43412</v>
       </c>
-      <c r="B314" s="4" t="s">
+      <c r="B314" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C314" s="1">
         <v>0.26041666666666669</v>
       </c>
-      <c r="D314" s="4" t="s">
+      <c r="D314" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="E314" s="4" t="s">
+      <c r="E314" s="8" t="s">
         <v>494</v>
       </c>
       <c r="F314" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G314" s="4" t="s">
+      <c r="G314" s="8" t="s">
         <v>522</v>
       </c>
       <c r="H314" s="1">
         <v>0.65625</v>
       </c>
-      <c r="I314" s="3" t="s">
+      <c r="I314" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="J314" s="2" t="s">
+      <c r="J314" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="K314" s="4" t="s">
+      <c r="K314" s="8" t="s">
         <v>592</v>
       </c>
       <c r="L314" s="1">
@@ -14555,34 +14558,34 @@
       <c r="A315" s="6">
         <v>43413</v>
       </c>
-      <c r="B315" s="4" t="s">
+      <c r="B315" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C315" s="1">
         <v>0.26041666666666669</v>
       </c>
-      <c r="D315" s="4" t="s">
+      <c r="D315" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="E315" s="4" t="s">
+      <c r="E315" s="8" t="s">
         <v>494</v>
       </c>
       <c r="F315" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G315" s="4" t="s">
+      <c r="G315" s="8" t="s">
         <v>521</v>
       </c>
       <c r="H315" s="1">
         <v>0.65625</v>
       </c>
-      <c r="I315" s="2" t="s">
+      <c r="I315" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="J315" s="2" t="s">
+      <c r="J315" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="K315" s="4" t="s">
+      <c r="K315" s="8" t="s">
         <v>355</v>
       </c>
       <c r="L315" s="1">
@@ -14593,34 +14596,34 @@
       <c r="A316" s="6">
         <v>43414</v>
       </c>
-      <c r="B316" s="4" t="s">
+      <c r="B316" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C316" s="1">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="D316" s="4" t="s">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="D316" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="E316" s="4" t="s">
+      <c r="E316" s="8" t="s">
         <v>495</v>
       </c>
       <c r="F316" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G316" s="4" t="s">
+      <c r="G316" s="8" t="s">
         <v>520</v>
       </c>
       <c r="H316" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I316" s="3" t="s">
+      <c r="I316" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="J316" s="2" t="s">
+      <c r="J316" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="K316" s="4" t="s">
+      <c r="K316" s="8" t="s">
         <v>356</v>
       </c>
       <c r="L316" s="1">
@@ -14631,34 +14634,34 @@
       <c r="A317" s="6">
         <v>43415</v>
       </c>
-      <c r="B317" s="4" t="s">
+      <c r="B317" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C317" s="1">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="D317" s="4" t="s">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="D317" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="E317" s="4" t="s">
+      <c r="E317" s="8" t="s">
         <v>495</v>
       </c>
       <c r="F317" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G317" s="4" t="s">
+      <c r="G317" s="8" t="s">
         <v>519</v>
       </c>
       <c r="H317" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I317" s="2" t="s">
+      <c r="I317" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="J317" s="2" t="s">
+      <c r="J317" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="K317" s="4" t="s">
+      <c r="K317" s="8" t="s">
         <v>356</v>
       </c>
       <c r="L317" s="1">
@@ -14669,34 +14672,34 @@
       <c r="A318" s="6">
         <v>43416</v>
       </c>
-      <c r="B318" s="4" t="s">
+      <c r="B318" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C318" s="1">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="D318" s="4" t="s">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="D318" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="E318" s="4" t="s">
+      <c r="E318" s="8" t="s">
         <v>495</v>
       </c>
       <c r="F318" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G318" s="4" t="s">
+      <c r="G318" s="8" t="s">
         <v>518</v>
       </c>
       <c r="H318" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I318" s="3" t="s">
+      <c r="I318" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="J318" s="2" t="s">
+      <c r="J318" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="K318" s="4" t="s">
+      <c r="K318" s="8" t="s">
         <v>591</v>
       </c>
       <c r="L318" s="1">
@@ -14707,34 +14710,34 @@
       <c r="A319" s="6">
         <v>43417</v>
       </c>
-      <c r="B319" s="4" t="s">
+      <c r="B319" s="8" t="s">
         <v>146</v>
       </c>
       <c r="C319" s="1">
         <v>0.27083333333333331</v>
       </c>
-      <c r="D319" s="4" t="s">
+      <c r="D319" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="E319" s="4" t="s">
+      <c r="E319" s="8" t="s">
         <v>495</v>
       </c>
       <c r="F319" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G319" s="4" t="s">
+      <c r="G319" s="8" t="s">
         <v>517</v>
       </c>
       <c r="H319" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I319" s="2" t="s">
+      <c r="I319" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="J319" s="2" t="s">
+      <c r="J319" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="K319" s="4" t="s">
+      <c r="K319" s="8" t="s">
         <v>357</v>
       </c>
       <c r="L319" s="1">
@@ -14745,34 +14748,34 @@
       <c r="A320" s="6">
         <v>43418</v>
       </c>
-      <c r="B320" s="4" t="s">
+      <c r="B320" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C320" s="1">
         <v>0.27083333333333331</v>
       </c>
-      <c r="D320" s="4" t="s">
+      <c r="D320" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="E320" s="4" t="s">
+      <c r="E320" s="8" t="s">
         <v>495</v>
       </c>
       <c r="F320" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G320" s="4" t="s">
+      <c r="G320" s="8" t="s">
         <v>516</v>
       </c>
       <c r="H320" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I320" s="3" t="s">
+      <c r="I320" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="J320" s="2" t="s">
+      <c r="J320" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="K320" s="4" t="s">
+      <c r="K320" s="8" t="s">
         <v>358</v>
       </c>
       <c r="L320" s="1">
@@ -14783,34 +14786,34 @@
       <c r="A321" s="6">
         <v>43419</v>
       </c>
-      <c r="B321" s="4" t="s">
+      <c r="B321" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C321" s="1">
         <v>0.27083333333333331</v>
       </c>
-      <c r="D321" s="4" t="s">
+      <c r="D321" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="E321" s="4" t="s">
+      <c r="E321" s="8" t="s">
         <v>495</v>
       </c>
       <c r="F321" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G321" s="4" t="s">
+      <c r="G321" s="8" t="s">
         <v>515</v>
       </c>
       <c r="H321" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I321" s="2" t="s">
+      <c r="I321" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="J321" s="2" t="s">
+      <c r="J321" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="K321" s="4" t="s">
+      <c r="K321" s="8" t="s">
         <v>590</v>
       </c>
       <c r="L321" s="1">
@@ -14821,34 +14824,34 @@
       <c r="A322" s="6">
         <v>43420</v>
       </c>
-      <c r="B322" s="4" t="s">
+      <c r="B322" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C322" s="1">
         <v>0.27083333333333331</v>
       </c>
-      <c r="D322" s="4" t="s">
+      <c r="D322" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="E322" s="4" t="s">
+      <c r="E322" s="8" t="s">
         <v>495</v>
       </c>
       <c r="F322" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G322" s="4" t="s">
+      <c r="G322" s="8" t="s">
         <v>514</v>
       </c>
       <c r="H322" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I322" s="3" t="s">
+      <c r="I322" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="J322" s="2" t="s">
+      <c r="J322" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="K322" s="4" t="s">
+      <c r="K322" s="8" t="s">
         <v>359</v>
       </c>
       <c r="L322" s="1">
@@ -14859,34 +14862,34 @@
       <c r="A323" s="6">
         <v>43421</v>
       </c>
-      <c r="B323" s="4" t="s">
+      <c r="B323" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C323" s="1">
         <v>0.27083333333333331</v>
       </c>
-      <c r="D323" s="4" t="s">
+      <c r="D323" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="E323" s="4" t="s">
+      <c r="E323" s="8" t="s">
         <v>496</v>
       </c>
       <c r="F323" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G323" s="4" t="s">
+      <c r="G323" s="8" t="s">
         <v>614</v>
       </c>
       <c r="H323" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I323" s="2" t="s">
+      <c r="I323" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="J323" s="2" t="s">
+      <c r="J323" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="K323" s="4" t="s">
+      <c r="K323" s="8" t="s">
         <v>359</v>
       </c>
       <c r="L323" s="1">
@@ -14897,34 +14900,34 @@
       <c r="A324" s="6">
         <v>43422</v>
       </c>
-      <c r="B324" s="4" t="s">
+      <c r="B324" s="8" t="s">
         <v>147</v>
       </c>
       <c r="C324" s="1">
         <v>0.27083333333333331</v>
       </c>
-      <c r="D324" s="4" t="s">
+      <c r="D324" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="E324" s="4" t="s">
+      <c r="E324" s="8" t="s">
         <v>496</v>
       </c>
       <c r="F324" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G324" s="4" t="s">
+      <c r="G324" s="8" t="s">
         <v>615</v>
       </c>
       <c r="H324" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I324" s="3" t="s">
+      <c r="I324" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="J324" s="2" t="s">
+      <c r="J324" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="K324" s="4" t="s">
+      <c r="K324" s="8" t="s">
         <v>360</v>
       </c>
       <c r="L324" s="1">
@@ -14935,1634 +14938,1634 @@
       <c r="A325" s="6">
         <v>43423</v>
       </c>
-      <c r="B325" s="4" t="s">
+      <c r="B325" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C325" s="1">
         <v>0.27083333333333331</v>
       </c>
-      <c r="D325" s="4" t="s">
+      <c r="D325" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="E325" s="4" t="s">
+      <c r="E325" s="8" t="s">
         <v>496</v>
       </c>
       <c r="F325" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G325" s="4" t="s">
+      <c r="G325" s="8" t="s">
         <v>615</v>
       </c>
       <c r="H325" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I325" s="2" t="s">
+      <c r="I325" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="J325" s="2" t="s">
+      <c r="J325" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="K325" s="4" t="s">
+      <c r="K325" s="8" t="s">
         <v>218</v>
       </c>
       <c r="L325" s="1">
-        <v>0.77083333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="326" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A326" s="6">
         <v>43424</v>
       </c>
-      <c r="B326" s="4" t="s">
+      <c r="B326" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C326" s="1">
         <v>0.27083333333333298</v>
       </c>
-      <c r="D326" s="4" t="s">
+      <c r="D326" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="E326" s="4" t="s">
+      <c r="E326" s="8" t="s">
         <v>496</v>
       </c>
       <c r="F326" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G326" s="4" t="s">
+      <c r="G326" s="8" t="s">
         <v>616</v>
       </c>
       <c r="H326" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I326" s="3" t="s">
+      <c r="I326" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="J326" s="2" t="s">
+      <c r="J326" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="K326" s="4" t="s">
+      <c r="K326" s="8" t="s">
         <v>218</v>
       </c>
       <c r="L326" s="1">
-        <v>0.77083333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="327" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A327" s="6">
         <v>43425</v>
       </c>
-      <c r="B327" s="4" t="s">
+      <c r="B327" s="8" t="s">
         <v>148</v>
       </c>
       <c r="C327" s="1">
         <v>0.27083333333333298</v>
       </c>
-      <c r="D327" s="4" t="s">
+      <c r="D327" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="E327" s="4" t="s">
+      <c r="E327" s="8" t="s">
         <v>496</v>
       </c>
       <c r="F327" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G327" s="4" t="s">
+      <c r="G327" s="8" t="s">
         <v>617</v>
       </c>
       <c r="H327" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I327" s="2" t="s">
+      <c r="I327" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="J327" s="2" t="s">
+      <c r="J327" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="K327" s="4" t="s">
+      <c r="K327" s="8" t="s">
         <v>217</v>
       </c>
       <c r="L327" s="1">
-        <v>0.77083333333333304</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="328" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A328" s="6">
         <v>43426</v>
       </c>
-      <c r="B328" s="4" t="s">
+      <c r="B328" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C328" s="1">
         <v>0.27083333333333298</v>
       </c>
-      <c r="D328" s="4" t="s">
+      <c r="D328" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="E328" s="4" t="s">
+      <c r="E328" s="8" t="s">
         <v>497</v>
       </c>
       <c r="F328" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G328" s="4" t="s">
+      <c r="G328" s="8" t="s">
         <v>618</v>
       </c>
       <c r="H328" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I328" s="3" t="s">
+      <c r="I328" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="J328" s="2" t="s">
+      <c r="J328" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="K328" s="4" t="s">
+      <c r="K328" s="8" t="s">
         <v>217</v>
       </c>
       <c r="L328" s="1">
-        <v>0.77083333333333304</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="329" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A329" s="6">
         <v>43427</v>
       </c>
-      <c r="B329" s="4" t="s">
+      <c r="B329" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C329" s="1">
         <v>0.27083333333333298</v>
       </c>
-      <c r="D329" s="4" t="s">
+      <c r="D329" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="E329" s="4" t="s">
+      <c r="E329" s="8" t="s">
         <v>497</v>
       </c>
       <c r="F329" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G329" s="4" t="s">
+      <c r="G329" s="8" t="s">
         <v>618</v>
       </c>
       <c r="H329" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I329" s="2" t="s">
+      <c r="I329" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="J329" s="2" t="s">
+      <c r="J329" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="K329" s="4" t="s">
+      <c r="K329" s="8" t="s">
         <v>216</v>
       </c>
       <c r="L329" s="1">
-        <v>0.77083333333333304</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="330" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A330" s="6">
         <v>43428</v>
       </c>
-      <c r="B330" s="4" t="s">
+      <c r="B330" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C330" s="1">
         <v>0.27083333333333298</v>
       </c>
-      <c r="D330" s="4" t="s">
+      <c r="D330" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="E330" s="4" t="s">
+      <c r="E330" s="8" t="s">
         <v>497</v>
       </c>
       <c r="F330" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G330" s="4" t="s">
+      <c r="G330" s="8" t="s">
         <v>619</v>
       </c>
       <c r="H330" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I330" s="3" t="s">
+      <c r="I330" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="J330" s="2" t="s">
+      <c r="J330" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="K330" s="4" t="s">
+      <c r="K330" s="8" t="s">
         <v>216</v>
       </c>
       <c r="L330" s="1">
-        <v>0.77083333333333304</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="331" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A331" s="6">
         <v>43429</v>
       </c>
-      <c r="B331" s="4" t="s">
+      <c r="B331" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C331" s="1">
         <v>0.27083333333333298</v>
       </c>
-      <c r="D331" s="4" t="s">
+      <c r="D331" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="E331" s="4" t="s">
+      <c r="E331" s="8" t="s">
         <v>498</v>
       </c>
       <c r="F331" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G331" s="4" t="s">
+      <c r="G331" s="8" t="s">
         <v>620</v>
       </c>
       <c r="H331" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I331" s="2" t="s">
+      <c r="I331" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="J331" s="2" t="s">
+      <c r="J331" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="K331" s="4" t="s">
+      <c r="K331" s="8" t="s">
         <v>215</v>
       </c>
       <c r="L331" s="1">
-        <v>0.77083333333333304</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="332" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A332" s="6">
         <v>43430</v>
       </c>
-      <c r="B332" s="4" t="s">
+      <c r="B332" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C332" s="1">
         <v>0.28125</v>
       </c>
-      <c r="D332" s="4" t="s">
+      <c r="D332" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="E332" s="4" t="s">
+      <c r="E332" s="8" t="s">
         <v>498</v>
       </c>
       <c r="F332" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G332" s="4" t="s">
+      <c r="G332" s="8" t="s">
         <v>620</v>
       </c>
       <c r="H332" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I332" s="3" t="s">
+      <c r="I332" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="J332" s="2" t="s">
+      <c r="J332" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="K332" s="4" t="s">
+      <c r="K332" s="8" t="s">
         <v>215</v>
       </c>
       <c r="L332" s="1">
-        <v>0.77083333333333304</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="333" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A333" s="6">
         <v>43431</v>
       </c>
-      <c r="B333" s="4" t="s">
+      <c r="B333" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C333" s="1">
         <v>0.28125</v>
       </c>
-      <c r="D333" s="4" t="s">
+      <c r="D333" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="E333" s="4" t="s">
+      <c r="E333" s="8" t="s">
         <v>498</v>
       </c>
       <c r="F333" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G333" s="4" t="s">
+      <c r="G333" s="8" t="s">
         <v>621</v>
       </c>
       <c r="H333" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I333" s="2" t="s">
+      <c r="I333" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="J333" s="2" t="s">
+      <c r="J333" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="K333" s="4" t="s">
+      <c r="K333" s="8" t="s">
         <v>589</v>
       </c>
       <c r="L333" s="1">
-        <v>0.77083333333333304</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="334" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A334" s="6">
         <v>43432</v>
       </c>
-      <c r="B334" s="4" t="s">
+      <c r="B334" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C334" s="1">
         <v>0.28125</v>
       </c>
-      <c r="D334" s="4" t="s">
+      <c r="D334" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="E334" s="4" t="s">
+      <c r="E334" s="8" t="s">
         <v>499</v>
       </c>
       <c r="F334" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G334" s="4" t="s">
+      <c r="G334" s="8" t="s">
         <v>621</v>
       </c>
       <c r="H334" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I334" s="3" t="s">
+      <c r="I334" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="J334" s="2" t="s">
+      <c r="J334" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="K334" s="4" t="s">
+      <c r="K334" s="8" t="s">
         <v>589</v>
       </c>
       <c r="L334" s="1">
-        <v>0.77083333333333304</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="335" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A335" s="6">
         <v>43433</v>
       </c>
-      <c r="B335" s="4" t="s">
+      <c r="B335" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C335" s="1">
         <v>0.28125</v>
       </c>
-      <c r="D335" s="4" t="s">
+      <c r="D335" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="E335" s="4" t="s">
+      <c r="E335" s="8" t="s">
         <v>499</v>
       </c>
       <c r="F335" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G335" s="4" t="s">
+      <c r="G335" s="8" t="s">
         <v>621</v>
       </c>
       <c r="H335" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I335" s="2" t="s">
+      <c r="I335" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="J335" s="2" t="s">
+      <c r="J335" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="K335" s="4" t="s">
+      <c r="K335" s="8" t="s">
         <v>589</v>
       </c>
       <c r="L335" s="1">
-        <v>0.77083333333333304</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="336" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A336" s="6">
         <v>43434</v>
       </c>
-      <c r="B336" s="4" t="s">
+      <c r="B336" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C336" s="1">
         <v>0.28125</v>
       </c>
-      <c r="D336" s="4" t="s">
+      <c r="D336" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="E336" s="4" t="s">
+      <c r="E336" s="8" t="s">
         <v>499</v>
       </c>
       <c r="F336" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G336" s="4" t="s">
+      <c r="G336" s="8" t="s">
         <v>622</v>
       </c>
       <c r="H336" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I336" s="3" t="s">
+      <c r="I336" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="J336" s="2" t="s">
+      <c r="J336" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="K336" s="4" t="s">
+      <c r="K336" s="8" t="s">
         <v>589</v>
       </c>
       <c r="L336" s="1">
-        <v>0.77083333333333304</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="337" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A337" s="6">
         <v>43435</v>
       </c>
-      <c r="B337" s="4" t="s">
+      <c r="B337" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C337" s="1">
         <v>0.28125</v>
       </c>
-      <c r="D337" s="4" t="s">
+      <c r="D337" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="E337" s="4" t="s">
+      <c r="E337" s="8" t="s">
         <v>500</v>
       </c>
       <c r="F337" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G337" s="4" t="s">
+      <c r="G337" s="8" t="s">
         <v>622</v>
       </c>
       <c r="H337" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I337" s="2" t="s">
+      <c r="I337" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="J337" s="2" t="s">
+      <c r="J337" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="K337" s="4" t="s">
+      <c r="K337" s="8" t="s">
         <v>214</v>
       </c>
       <c r="L337" s="1">
-        <v>0.77083333333333304</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="338" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A338" s="6">
         <v>43436</v>
       </c>
-      <c r="B338" s="4" t="s">
+      <c r="B338" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C338" s="1">
         <v>0.28125</v>
       </c>
-      <c r="D338" s="4" t="s">
+      <c r="D338" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="E338" s="4" t="s">
+      <c r="E338" s="8" t="s">
         <v>500</v>
       </c>
       <c r="F338" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G338" s="4" t="s">
+      <c r="G338" s="8" t="s">
         <v>623</v>
       </c>
       <c r="H338" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I338" s="3" t="s">
+      <c r="I338" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="J338" s="2" t="s">
+      <c r="J338" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="K338" s="4" t="s">
+      <c r="K338" s="8" t="s">
         <v>214</v>
       </c>
       <c r="L338" s="1">
-        <v>0.77083333333333304</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="339" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A339" s="6">
         <v>43437</v>
       </c>
-      <c r="B339" s="4" t="s">
+      <c r="B339" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C339" s="1">
         <v>0.28125</v>
       </c>
-      <c r="D339" s="4" t="s">
+      <c r="D339" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="E339" s="4" t="s">
+      <c r="E339" s="8" t="s">
         <v>500</v>
       </c>
       <c r="F339" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G339" s="4" t="s">
+      <c r="G339" s="8" t="s">
         <v>623</v>
       </c>
       <c r="H339" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I339" s="2" t="s">
+      <c r="I339" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="J339" s="2" t="s">
+      <c r="J339" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="K339" s="4" t="s">
+      <c r="K339" s="8" t="s">
         <v>214</v>
       </c>
       <c r="L339" s="1">
-        <v>0.77083333333333304</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="340" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A340" s="6">
         <v>43438</v>
       </c>
-      <c r="B340" s="4" t="s">
+      <c r="B340" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C340" s="1">
         <v>0.28125</v>
       </c>
-      <c r="D340" s="4" t="s">
+      <c r="D340" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="E340" s="4" t="s">
+      <c r="E340" s="8" t="s">
         <v>501</v>
       </c>
       <c r="F340" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G340" s="4" t="s">
+      <c r="G340" s="8" t="s">
         <v>623</v>
       </c>
       <c r="H340" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I340" s="3" t="s">
+      <c r="I340" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="J340" s="2" t="s">
+      <c r="J340" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="K340" s="4" t="s">
+      <c r="K340" s="8" t="s">
         <v>214</v>
       </c>
       <c r="L340" s="1">
-        <v>0.77083333333333304</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="341" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A341" s="6">
         <v>43439</v>
       </c>
-      <c r="B341" s="4" t="s">
+      <c r="B341" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C341" s="1">
         <v>0.28125</v>
       </c>
-      <c r="D341" s="4" t="s">
+      <c r="D341" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="E341" s="4" t="s">
+      <c r="E341" s="8" t="s">
         <v>501</v>
       </c>
       <c r="F341" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G341" s="4" t="s">
+      <c r="G341" s="8" t="s">
         <v>623</v>
       </c>
       <c r="H341" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I341" s="2" t="s">
+      <c r="I341" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="J341" s="2" t="s">
+      <c r="J341" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="K341" s="4" t="s">
+      <c r="K341" s="8" t="s">
         <v>214</v>
       </c>
       <c r="L341" s="1">
-        <v>0.77083333333333304</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="342" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A342" s="6">
         <v>43440</v>
       </c>
-      <c r="B342" s="4" t="s">
+      <c r="B342" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C342" s="1">
         <v>0.28125</v>
       </c>
-      <c r="D342" s="4" t="s">
+      <c r="D342" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="E342" s="4" t="s">
+      <c r="E342" s="8" t="s">
         <v>502</v>
       </c>
       <c r="F342" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G342" s="4" t="s">
+      <c r="G342" s="8" t="s">
         <v>623</v>
       </c>
       <c r="H342" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I342" s="3" t="s">
+      <c r="I342" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="J342" s="2" t="s">
+      <c r="J342" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="K342" s="4" t="s">
+      <c r="K342" s="8" t="s">
         <v>214</v>
       </c>
       <c r="L342" s="1">
-        <v>0.77083333333333304</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="343" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A343" s="6">
         <v>43441</v>
       </c>
-      <c r="B343" s="4" t="s">
+      <c r="B343" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C343" s="1">
         <v>0.28125</v>
       </c>
-      <c r="D343" s="4" t="s">
+      <c r="D343" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="E343" s="4" t="s">
+      <c r="E343" s="8" t="s">
         <v>502</v>
       </c>
       <c r="F343" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G343" s="4" t="s">
+      <c r="G343" s="8" t="s">
         <v>623</v>
       </c>
       <c r="H343" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I343" s="2" t="s">
+      <c r="I343" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="J343" s="2" t="s">
+      <c r="J343" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="K343" s="4" t="s">
+      <c r="K343" s="8" t="s">
         <v>214</v>
       </c>
       <c r="L343" s="1">
-        <v>0.77083333333333304</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="344" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A344" s="6">
         <v>43442</v>
       </c>
-      <c r="B344" s="4" t="s">
+      <c r="B344" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C344" s="1">
         <v>0.28125</v>
       </c>
-      <c r="D344" s="4" t="s">
+      <c r="D344" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="E344" s="4" t="s">
+      <c r="E344" s="8" t="s">
         <v>502</v>
       </c>
       <c r="F344" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G344" s="4" t="s">
+      <c r="G344" s="8" t="s">
         <v>624</v>
       </c>
       <c r="H344" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I344" s="3" t="s">
+      <c r="I344" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="J344" s="2" t="s">
+      <c r="J344" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="K344" s="4" t="s">
+      <c r="K344" s="8" t="s">
         <v>214</v>
       </c>
       <c r="L344" s="1">
-        <v>0.77083333333333304</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="345" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A345" s="6">
         <v>43443</v>
       </c>
-      <c r="B345" s="4" t="s">
+      <c r="B345" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C345" s="1">
         <v>0.28125</v>
       </c>
-      <c r="D345" s="4" t="s">
+      <c r="D345" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="E345" s="4" t="s">
+      <c r="E345" s="8" t="s">
         <v>503</v>
       </c>
       <c r="F345" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G345" s="4" t="s">
+      <c r="G345" s="8" t="s">
         <v>624</v>
       </c>
       <c r="H345" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I345" s="2" t="s">
+      <c r="I345" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="J345" s="2" t="s">
+      <c r="J345" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="K345" s="4" t="s">
+      <c r="K345" s="8" t="s">
         <v>214</v>
       </c>
       <c r="L345" s="1">
-        <v>0.77083333333333304</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="346" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A346" s="6">
         <v>43444</v>
       </c>
-      <c r="B346" s="4" t="s">
+      <c r="B346" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C346" s="1">
         <v>0.28125</v>
       </c>
-      <c r="D346" s="4" t="s">
+      <c r="D346" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="E346" s="4" t="s">
+      <c r="E346" s="8" t="s">
         <v>503</v>
       </c>
       <c r="F346" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G346" s="4" t="s">
+      <c r="G346" s="8" t="s">
         <v>624</v>
       </c>
       <c r="H346" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I346" s="3" t="s">
+      <c r="I346" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="J346" s="2" t="s">
+      <c r="J346" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="K346" s="4" t="s">
+      <c r="K346" s="8" t="s">
         <v>214</v>
       </c>
       <c r="L346" s="1">
-        <v>0.77083333333333304</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="347" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A347" s="6">
         <v>43445</v>
       </c>
-      <c r="B347" s="4" t="s">
+      <c r="B347" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C347" s="1">
         <v>0.28125</v>
       </c>
-      <c r="D347" s="4" t="s">
+      <c r="D347" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="E347" s="4" t="s">
+      <c r="E347" s="8" t="s">
         <v>504</v>
       </c>
       <c r="F347" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G347" s="4" t="s">
+      <c r="G347" s="8" t="s">
         <v>623</v>
       </c>
       <c r="H347" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I347" s="2" t="s">
+      <c r="I347" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="J347" s="2" t="s">
+      <c r="J347" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="K347" s="4" t="s">
+      <c r="K347" s="8" t="s">
         <v>214</v>
       </c>
       <c r="L347" s="1">
-        <v>0.77083333333333304</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="348" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A348" s="6">
         <v>43446</v>
       </c>
-      <c r="B348" s="4" t="s">
+      <c r="B348" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C348" s="1">
         <v>0.28125</v>
       </c>
-      <c r="D348" s="4" t="s">
+      <c r="D348" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="E348" s="4" t="s">
+      <c r="E348" s="8" t="s">
         <v>504</v>
       </c>
       <c r="F348" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G348" s="4" t="s">
+      <c r="G348" s="8" t="s">
         <v>623</v>
       </c>
       <c r="H348" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I348" s="3" t="s">
+      <c r="I348" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="J348" s="2" t="s">
+      <c r="J348" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="K348" s="4" t="s">
+      <c r="K348" s="8" t="s">
         <v>214</v>
       </c>
       <c r="L348" s="1">
-        <v>0.77083333333333304</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="349" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A349" s="6">
         <v>43447</v>
       </c>
-      <c r="B349" s="4" t="s">
+      <c r="B349" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C349" s="1">
         <v>0.28125</v>
       </c>
-      <c r="D349" s="4" t="s">
+      <c r="D349" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="E349" s="4" t="s">
+      <c r="E349" s="8" t="s">
         <v>505</v>
       </c>
       <c r="F349" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G349" s="4" t="s">
+      <c r="G349" s="8" t="s">
         <v>623</v>
       </c>
       <c r="H349" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I349" s="2" t="s">
+      <c r="I349" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="J349" s="2" t="s">
+      <c r="J349" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="K349" s="4" t="s">
+      <c r="K349" s="8" t="s">
         <v>214</v>
       </c>
       <c r="L349" s="1">
-        <v>0.77083333333333304</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="350" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A350" s="6">
         <v>43448</v>
       </c>
-      <c r="B350" s="4" t="s">
+      <c r="B350" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C350" s="1">
         <v>0.28125</v>
       </c>
-      <c r="D350" s="4" t="s">
+      <c r="D350" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="E350" s="4" t="s">
+      <c r="E350" s="8" t="s">
         <v>505</v>
       </c>
       <c r="F350" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G350" s="4" t="s">
+      <c r="G350" s="8" t="s">
         <v>623</v>
       </c>
       <c r="H350" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I350" s="3" t="s">
+      <c r="I350" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="J350" s="2" t="s">
+      <c r="J350" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="K350" s="4" t="s">
+      <c r="K350" s="8" t="s">
         <v>589</v>
       </c>
       <c r="L350" s="1">
-        <v>0.77083333333333304</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="351" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A351" s="6">
         <v>43449</v>
       </c>
-      <c r="B351" s="4" t="s">
+      <c r="B351" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C351" s="1">
         <v>0.28125</v>
       </c>
-      <c r="D351" s="4" t="s">
+      <c r="D351" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="E351" s="4" t="s">
+      <c r="E351" s="8" t="s">
         <v>506</v>
       </c>
       <c r="F351" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G351" s="4" t="s">
+      <c r="G351" s="8" t="s">
         <v>623</v>
       </c>
       <c r="H351" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I351" s="2" t="s">
+      <c r="I351" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="J351" s="2" t="s">
+      <c r="J351" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="K351" s="4" t="s">
+      <c r="K351" s="8" t="s">
         <v>589</v>
       </c>
       <c r="L351" s="1">
-        <v>0.77083333333333304</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="352" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A352" s="6">
         <v>43450</v>
       </c>
-      <c r="B352" s="4" t="s">
+      <c r="B352" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C352" s="1">
-        <v>0.28125</v>
-      </c>
-      <c r="D352" s="4" t="s">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="D352" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="E352" s="4" t="s">
+      <c r="E352" s="8" t="s">
         <v>506</v>
       </c>
       <c r="F352" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G352" s="4" t="s">
+      <c r="G352" s="8" t="s">
         <v>623</v>
       </c>
       <c r="H352" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I352" s="3" t="s">
+      <c r="I352" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="J352" s="2" t="s">
+      <c r="J352" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="K352" s="4" t="s">
+      <c r="K352" s="8" t="s">
         <v>589</v>
       </c>
       <c r="L352" s="1">
-        <v>0.77083333333333304</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="353" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A353" s="6">
         <v>43451</v>
       </c>
-      <c r="B353" s="4" t="s">
+      <c r="B353" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C353" s="1">
-        <v>0.28125</v>
-      </c>
-      <c r="D353" s="4" t="s">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="D353" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="E353" s="4" t="s">
+      <c r="E353" s="8" t="s">
         <v>507</v>
       </c>
       <c r="F353" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G353" s="4" t="s">
+      <c r="G353" s="8" t="s">
         <v>622</v>
       </c>
       <c r="H353" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I353" s="2" t="s">
+      <c r="I353" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="J353" s="2" t="s">
+      <c r="J353" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="K353" s="4" t="s">
+      <c r="K353" s="8" t="s">
         <v>215</v>
       </c>
       <c r="L353" s="1">
-        <v>0.77083333333333304</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="354" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A354" s="6">
         <v>43452</v>
       </c>
-      <c r="B354" s="4" t="s">
+      <c r="B354" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C354" s="1">
-        <v>0.28125</v>
-      </c>
-      <c r="D354" s="4" t="s">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="D354" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="E354" s="4" t="s">
+      <c r="E354" s="8" t="s">
         <v>507</v>
       </c>
       <c r="F354" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G354" s="4" t="s">
+      <c r="G354" s="8" t="s">
         <v>622</v>
       </c>
       <c r="H354" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I354" s="3" t="s">
+      <c r="I354" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="J354" s="2" t="s">
+      <c r="J354" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="K354" s="4" t="s">
+      <c r="K354" s="8" t="s">
         <v>215</v>
       </c>
       <c r="L354" s="1">
-        <v>0.77083333333333304</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="355" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A355" s="6">
         <v>43453</v>
       </c>
-      <c r="B355" s="4" t="s">
+      <c r="B355" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C355" s="1">
-        <v>0.28125</v>
-      </c>
-      <c r="D355" s="4" t="s">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="D355" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="E355" s="4" t="s">
+      <c r="E355" s="8" t="s">
         <v>508</v>
       </c>
       <c r="F355" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G355" s="4" t="s">
+      <c r="G355" s="8" t="s">
         <v>621</v>
       </c>
       <c r="H355" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I355" s="2" t="s">
+      <c r="I355" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="J355" s="2" t="s">
+      <c r="J355" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="K355" s="4" t="s">
+      <c r="K355" s="8" t="s">
         <v>215</v>
       </c>
       <c r="L355" s="1">
-        <v>0.77083333333333304</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="356" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A356" s="6">
         <v>43454</v>
       </c>
-      <c r="B356" s="4" t="s">
+      <c r="B356" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C356" s="1">
-        <v>0.28125</v>
-      </c>
-      <c r="D356" s="4" t="s">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="D356" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="E356" s="4" t="s">
+      <c r="E356" s="8" t="s">
         <v>508</v>
       </c>
       <c r="F356" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G356" s="4" t="s">
+      <c r="G356" s="8" t="s">
         <v>621</v>
       </c>
       <c r="H356" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I356" s="3" t="s">
+      <c r="I356" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="J356" s="2" t="s">
+      <c r="J356" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="K356" s="4" t="s">
+      <c r="K356" s="8" t="s">
         <v>216</v>
       </c>
       <c r="L356" s="1">
-        <v>0.77083333333333304</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="357" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A357" s="6">
         <v>43455</v>
       </c>
-      <c r="B357" s="4" t="s">
+      <c r="B357" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C357" s="1">
-        <v>0.28125</v>
-      </c>
-      <c r="D357" s="4" t="s">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="D357" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="E357" s="4" t="s">
+      <c r="E357" s="8" t="s">
         <v>509</v>
       </c>
       <c r="F357" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G357" s="4" t="s">
+      <c r="G357" s="8" t="s">
         <v>621</v>
       </c>
       <c r="H357" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I357" s="2" t="s">
+      <c r="I357" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="J357" s="2" t="s">
+      <c r="J357" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="K357" s="4" t="s">
+      <c r="K357" s="8" t="s">
         <v>216</v>
       </c>
       <c r="L357" s="1">
-        <v>0.77083333333333304</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="358" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A358" s="6">
         <v>43456</v>
       </c>
-      <c r="B358" s="4" t="s">
+      <c r="B358" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C358" s="1">
-        <v>0.28125</v>
-      </c>
-      <c r="D358" s="4" t="s">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="D358" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="E358" s="4" t="s">
+      <c r="E358" s="8" t="s">
         <v>509</v>
       </c>
       <c r="F358" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G358" s="4" t="s">
+      <c r="G358" s="8" t="s">
         <v>620</v>
       </c>
       <c r="H358" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I358" s="3" t="s">
+      <c r="I358" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="J358" s="2" t="s">
+      <c r="J358" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="K358" s="4" t="s">
+      <c r="K358" s="8" t="s">
         <v>217</v>
       </c>
       <c r="L358" s="1">
-        <v>0.77083333333333304</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="359" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A359" s="6">
         <v>43457</v>
       </c>
-      <c r="B359" s="4" t="s">
+      <c r="B359" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C359" s="1">
-        <v>0.28125</v>
-      </c>
-      <c r="D359" s="4" t="s">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="D359" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="E359" s="4" t="s">
+      <c r="E359" s="8" t="s">
         <v>510</v>
       </c>
       <c r="F359" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G359" s="4" t="s">
+      <c r="G359" s="8" t="s">
         <v>620</v>
       </c>
       <c r="H359" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I359" s="2" t="s">
+      <c r="I359" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="J359" s="2" t="s">
+      <c r="J359" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="K359" s="4" t="s">
+      <c r="K359" s="8" t="s">
         <v>217</v>
       </c>
       <c r="L359" s="1">
-        <v>0.77083333333333304</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="360" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A360" s="6">
         <v>43458</v>
       </c>
-      <c r="B360" s="4" t="s">
+      <c r="B360" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C360" s="1">
-        <v>0.28125</v>
-      </c>
-      <c r="D360" s="4" t="s">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="D360" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="E360" s="4" t="s">
+      <c r="E360" s="8" t="s">
         <v>510</v>
       </c>
       <c r="F360" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G360" s="4" t="s">
+      <c r="G360" s="8" t="s">
         <v>619</v>
       </c>
       <c r="H360" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I360" s="3" t="s">
+      <c r="I360" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="J360" s="2" t="s">
+      <c r="J360" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="K360" s="4" t="s">
+      <c r="K360" s="8" t="s">
         <v>218</v>
       </c>
       <c r="L360" s="1">
-        <v>0.77083333333333304</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="361" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A361" s="6">
         <v>43459</v>
       </c>
-      <c r="B361" s="4" t="s">
+      <c r="B361" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C361" s="1">
-        <v>0.28125</v>
-      </c>
-      <c r="D361" s="4" t="s">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="D361" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="E361" s="4" t="s">
+      <c r="E361" s="8" t="s">
         <v>511</v>
       </c>
       <c r="F361" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G361" s="4" t="s">
+      <c r="G361" s="8" t="s">
         <v>618</v>
       </c>
       <c r="H361" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I361" s="2" t="s">
+      <c r="I361" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="J361" s="2" t="s">
+      <c r="J361" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="K361" s="4" t="s">
+      <c r="K361" s="8" t="s">
         <v>360</v>
       </c>
       <c r="L361" s="1">
-        <v>0.77083333333333304</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="362" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A362" s="6">
         <v>43460</v>
       </c>
-      <c r="B362" s="4" t="s">
+      <c r="B362" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C362" s="1">
-        <v>0.28125</v>
-      </c>
-      <c r="D362" s="4" t="s">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="D362" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="E362" s="4" t="s">
+      <c r="E362" s="8" t="s">
         <v>511</v>
       </c>
       <c r="F362" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G362" s="4" t="s">
+      <c r="G362" s="8" t="s">
         <v>618</v>
       </c>
       <c r="H362" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I362" s="3" t="s">
+      <c r="I362" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="J362" s="2" t="s">
+      <c r="J362" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="K362" s="4" t="s">
+      <c r="K362" s="8" t="s">
         <v>360</v>
       </c>
       <c r="L362" s="1">
-        <v>0.77083333333333304</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="363" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A363" s="6">
         <v>43461</v>
       </c>
-      <c r="B363" s="4" t="s">
+      <c r="B363" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C363" s="1">
-        <v>0.28125</v>
-      </c>
-      <c r="D363" s="4" t="s">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="D363" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="E363" s="4" t="s">
+      <c r="E363" s="8" t="s">
         <v>512</v>
       </c>
       <c r="F363" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G363" s="4" t="s">
+      <c r="G363" s="8" t="s">
         <v>617</v>
       </c>
       <c r="H363" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I363" s="2" t="s">
+      <c r="I363" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="J363" s="2" t="s">
+      <c r="J363" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="K363" s="4" t="s">
+      <c r="K363" s="8" t="s">
         <v>359</v>
       </c>
       <c r="L363" s="1">
-        <v>0.77083333333333304</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="364" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A364" s="6">
         <v>43462</v>
       </c>
-      <c r="B364" s="4" t="s">
+      <c r="B364" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C364" s="1">
-        <v>0.28125</v>
-      </c>
-      <c r="D364" s="4" t="s">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="D364" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="E364" s="4" t="s">
+      <c r="E364" s="8" t="s">
         <v>512</v>
       </c>
       <c r="F364" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G364" s="4" t="s">
+      <c r="G364" s="8" t="s">
         <v>616</v>
       </c>
       <c r="H364" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I364" s="3" t="s">
+      <c r="I364" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="J364" s="2" t="s">
+      <c r="J364" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="K364" s="4" t="s">
+      <c r="K364" s="8" t="s">
         <v>590</v>
       </c>
       <c r="L364" s="1">
-        <v>0.77083333333333304</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="365" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A365" s="6">
         <v>43463</v>
       </c>
-      <c r="B365" s="4" t="s">
+      <c r="B365" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C365" s="1">
-        <v>0.28125</v>
-      </c>
-      <c r="D365" s="4" t="s">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="D365" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="E365" s="4" t="s">
+      <c r="E365" s="8" t="s">
         <v>513</v>
       </c>
       <c r="F365" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G365" s="4" t="s">
+      <c r="G365" s="8" t="s">
         <v>616</v>
       </c>
       <c r="H365" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I365" s="2" t="s">
+      <c r="I365" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="J365" s="2" t="s">
+      <c r="J365" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="K365" s="4" t="s">
+      <c r="K365" s="8" t="s">
         <v>590</v>
       </c>
       <c r="L365" s="1">
-        <v>0.77083333333333304</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="366" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A366" s="6">
         <v>43464</v>
       </c>
-      <c r="B366" s="4" t="s">
+      <c r="B366" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C366" s="1">
-        <v>0.28125</v>
-      </c>
-      <c r="D366" s="4" t="s">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="D366" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="E366" s="4" t="s">
+      <c r="E366" s="8" t="s">
         <v>513</v>
       </c>
       <c r="F366" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G366" s="4" t="s">
+      <c r="G366" s="8" t="s">
         <v>615</v>
       </c>
       <c r="H366" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I366" s="3" t="s">
+      <c r="I366" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="J366" s="2" t="s">
+      <c r="J366" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="K366" s="4" t="s">
+      <c r="K366" s="8" t="s">
         <v>358</v>
       </c>
       <c r="L366" s="1">
-        <v>0.77083333333333304</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="367" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A367" s="6">
         <v>43465</v>
       </c>
-      <c r="B367" s="4" t="s">
+      <c r="B367" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C367" s="1">
-        <v>0.28125</v>
-      </c>
-      <c r="D367" s="4" t="s">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="D367" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="E367" s="4" t="s">
+      <c r="E367" s="8" t="s">
         <v>453</v>
       </c>
       <c r="F367" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G367" s="4" t="s">
+      <c r="G367" s="8" t="s">
         <v>614</v>
       </c>
       <c r="H367" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I367" s="2" t="s">
+      <c r="I367" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="J367" s="2" t="s">
+      <c r="J367" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="K367" s="4" t="s">
+      <c r="K367" s="8" t="s">
         <v>357</v>
       </c>
       <c r="L367" s="1">
-        <v>0.77083333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
   </sheetData>

--- a/iqma-times.xlsx
+++ b/iqma-times.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\rexdale-masjid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65F785A-B860-4641-926F-06C3A7A3B255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49650D59-826C-45D5-B361-8A1CF11849E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="690" windowWidth="8430" windowHeight="6750" xr2:uid="{23536C81-BBE2-40BC-99B3-45CC75E2F752}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{23536C81-BBE2-40BC-99B3-45CC75E2F752}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2261,12 +2261,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2282,7 +2288,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -2294,6 +2300,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2611,8 +2618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC822B9A-2A7D-44F3-B733-DDFD66B0B4CD}">
   <dimension ref="A1:L367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A340" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B373" sqref="B373"/>
+    <sheetView tabSelected="1" topLeftCell="A336" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A324" sqref="A324:L367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14973,7 +14980,7 @@
       </c>
     </row>
     <row r="326" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A326" s="6">
+      <c r="A326" s="11">
         <v>43424</v>
       </c>
       <c r="B326" s="8" t="s">
@@ -15007,11 +15014,11 @@
         <v>218</v>
       </c>
       <c r="L326" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
     </row>
     <row r="327" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A327" s="6">
+      <c r="A327" s="11">
         <v>43425</v>
       </c>
       <c r="B327" s="8" t="s">
@@ -15045,7 +15052,7 @@
         <v>217</v>
       </c>
       <c r="L327" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
     </row>
     <row r="328" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -15239,7 +15246,7 @@
       </c>
     </row>
     <row r="333" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A333" s="6">
+      <c r="A333" s="11">
         <v>43431</v>
       </c>
       <c r="B333" s="8" t="s">
@@ -15273,11 +15280,11 @@
         <v>589</v>
       </c>
       <c r="L333" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
     </row>
     <row r="334" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A334" s="6">
+      <c r="A334" s="11">
         <v>43432</v>
       </c>
       <c r="B334" s="8" t="s">
@@ -15311,7 +15318,7 @@
         <v>589</v>
       </c>
       <c r="L334" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
     </row>
     <row r="335" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -15505,7 +15512,7 @@
       </c>
     </row>
     <row r="340" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A340" s="6">
+      <c r="A340" s="11">
         <v>43438</v>
       </c>
       <c r="B340" s="8" t="s">
@@ -15539,11 +15546,11 @@
         <v>214</v>
       </c>
       <c r="L340" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
     </row>
     <row r="341" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A341" s="6">
+      <c r="A341" s="11">
         <v>43439</v>
       </c>
       <c r="B341" s="8" t="s">
@@ -15577,7 +15584,7 @@
         <v>214</v>
       </c>
       <c r="L341" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
     </row>
     <row r="342" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -15771,7 +15778,7 @@
       </c>
     </row>
     <row r="347" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A347" s="6">
+      <c r="A347" s="11">
         <v>43445</v>
       </c>
       <c r="B347" s="8" t="s">
@@ -15805,11 +15812,11 @@
         <v>214</v>
       </c>
       <c r="L347" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
     </row>
     <row r="348" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A348" s="6">
+      <c r="A348" s="11">
         <v>43446</v>
       </c>
       <c r="B348" s="8" t="s">
@@ -15843,7 +15850,7 @@
         <v>214</v>
       </c>
       <c r="L348" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
     </row>
     <row r="349" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -16037,7 +16044,7 @@
       </c>
     </row>
     <row r="354" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A354" s="6">
+      <c r="A354" s="11">
         <v>43452</v>
       </c>
       <c r="B354" s="8" t="s">
@@ -16071,11 +16078,11 @@
         <v>215</v>
       </c>
       <c r="L354" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
     </row>
     <row r="355" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A355" s="6">
+      <c r="A355" s="11">
         <v>43453</v>
       </c>
       <c r="B355" s="8" t="s">
@@ -16109,7 +16116,7 @@
         <v>215</v>
       </c>
       <c r="L355" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
     </row>
     <row r="356" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -16303,7 +16310,7 @@
       </c>
     </row>
     <row r="361" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A361" s="6">
+      <c r="A361" s="11">
         <v>43459</v>
       </c>
       <c r="B361" s="8" t="s">
@@ -16337,11 +16344,11 @@
         <v>360</v>
       </c>
       <c r="L361" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
     </row>
     <row r="362" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A362" s="6">
+      <c r="A362" s="11">
         <v>43460</v>
       </c>
       <c r="B362" s="8" t="s">
@@ -16375,7 +16382,7 @@
         <v>360</v>
       </c>
       <c r="L362" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
     </row>
     <row r="363" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
